--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E836EFAF-5043-47A7-BB80-CBDAB9169B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5097CC1-4F17-461A-AF47-8763237E25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2685" windowWidth="21690" windowHeight="12525" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -503,7 +503,7 @@
         <v>2000</v>
       </c>
       <c r="D2">
-        <v>1200</v>
+        <v>1998</v>
       </c>
       <c r="E2">
         <v>10</v>

--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5097CC1-4F17-461A-AF47-8763237E25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C44B84-7D21-4197-9C9F-09C34BDDADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -64,11 +64,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大麦</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EntityID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゃがいも</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -137,8 +145,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7F037E00-A325-4710-9195-2BD2F5AE533B}" name="ID"/>
     <tableColumn id="12" xr3:uid="{78C45AA1-4F88-47FC-B64D-63795C73F502}" name="Des"/>
@@ -450,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758E790-4733-49C5-93EF-3AD14BB2D3E4}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -477,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -497,13 +505,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2000</v>
       </c>
       <c r="D2">
-        <v>1998</v>
+        <v>1800</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -515,6 +523,58 @@
         <v>1028</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2001</v>
+      </c>
+      <c r="D3">
+        <v>1801</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1028</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2002</v>
+      </c>
+      <c r="D4">
+        <v>1802</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>1028</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
     </row>

--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C44B84-7D21-4197-9C9F-09C34BDDADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB3D50-D5DF-455F-A5F3-12EC8B8288BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -520,7 +520,7 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>1028</v>
+        <v>2500</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -546,7 +546,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>1028</v>
+        <v>2501</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -572,7 +572,7 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>1028</v>
+        <v>2502</v>
       </c>
       <c r="H4">
         <v>5</v>

--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB3D50-D5DF-455F-A5F3-12EC8B8288BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD4203-C563-4089-B659-3556DD723DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
+    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -460,21 +458,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758E790-4733-49C5-93EF-3AD14BB2D3E4}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,10 +510,10 @@
         <v>1800</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G2">
         <v>2500</v>
@@ -526,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -540,10 +536,10 @@
         <v>1801</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>1500</v>
       </c>
       <c r="G3">
         <v>2501</v>
@@ -552,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -566,10 +562,10 @@
         <v>1802</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G4">
         <v>2502</v>

--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD4203-C563-4089-B659-3556DD723DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F83255-A016-4E7E-9837-1AE661312A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>じゃがいも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうれん草</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -143,8 +151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7F037E00-A325-4710-9195-2BD2F5AE533B}" name="ID"/>
     <tableColumn id="12" xr3:uid="{78C45AA1-4F88-47FC-B64D-63795C73F502}" name="Des"/>
@@ -456,21 +464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758E790-4733-49C5-93EF-3AD14BB2D3E4}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -548,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -572,6 +582,58 @@
       </c>
       <c r="H4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2003</v>
+      </c>
+      <c r="D5">
+        <v>1803</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
+      </c>
+      <c r="G5">
+        <v>2503</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2004</v>
+      </c>
+      <c r="D6">
+        <v>1804</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>1200</v>
+      </c>
+      <c r="G6">
+        <v>2504</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F83255-A016-4E7E-9837-1AE661312A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937B8DE-CE7E-4628-B03B-41A574D650D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +84,94 @@
   </si>
   <si>
     <t>ほうれん草</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農作物の設定ファイルです。</t>
+    <rPh sb="0" eb="3">
+      <t>ノウサクブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種のアイテムID</t>
+    <rPh sb="0" eb="1">
+      <t>タネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連Object</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段階の時間</t>
+    <rPh sb="0" eb="3">
+      <t>イチダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段階の時間</t>
+    <rPh sb="0" eb="3">
+      <t>ニダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊すと手に入るアイテム</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手に入る数</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -90,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,21 +195,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -129,8 +270,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -151,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7F037E00-A325-4710-9195-2BD2F5AE533B}" name="ID"/>
     <tableColumn id="12" xr3:uid="{78C45AA1-4F88-47FC-B64D-63795C73F502}" name="Des"/>
@@ -464,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758E790-4733-49C5-93EF-3AD14BB2D3E4}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
@@ -636,6 +786,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2005</v>
+      </c>
+      <c r="D7">
+        <v>1805</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>1001</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -644,4 +820,108 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75DC107-3429-4313-AF03-15EBCE3C33A5}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937B8DE-CE7E-4628-B03B-41A574D650D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60869019-F1D6-4FA9-8E8C-C2CE59BFEF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DestroyAddItem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EntityID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -149,7 +141,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>壊すと手に入るアイテム</t>
+    <t>DestroyAddItems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Counts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊すと手に入るアイテム(カンマ区切りで複数設定可能)</t>
     <rPh sb="0" eb="1">
       <t>コワ</t>
     </rPh>
@@ -159,10 +159,19 @@
     <rPh sb="5" eb="6">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手に入る数</t>
+    <rPh sb="15" eb="17">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>フクスウセッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手に入る数(カンマ区切りで複数設定可能)</t>
     <rPh sb="0" eb="1">
       <t>テ</t>
     </rPh>
@@ -310,8 +319,8 @@
     <tableColumn id="2" xr3:uid="{0F29D255-3002-4AFE-BE3E-8B0636874509}" name="EntityID"/>
     <tableColumn id="6" xr3:uid="{96BA3B3E-8AA4-4B07-9E27-639398A6D3ED}" name="StateTime1"/>
     <tableColumn id="7" xr3:uid="{509F7D41-2B6E-4ABE-9507-0850686086C8}" name="StateTime2"/>
-    <tableColumn id="8" xr3:uid="{8E6A8181-3BF5-4A44-A555-484DFAA065DB}" name="DestroyAddItem"/>
-    <tableColumn id="9" xr3:uid="{09561902-D504-4E0A-98CD-F0E40C052EA2}" name="Count"/>
+    <tableColumn id="8" xr3:uid="{8E6A8181-3BF5-4A44-A555-484DFAA065DB}" name="DestroyAddItems"/>
+    <tableColumn id="9" xr3:uid="{09561902-D504-4E0A-98CD-F0E40C052EA2}" name="Counts"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -616,9 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758E790-4733-49C5-93EF-3AD14BB2D3E4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -641,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -650,10 +657,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -661,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -687,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -713,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -739,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2003</v>
@@ -765,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -791,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2005</v>
@@ -826,9 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75DC107-3429-4313-AF03-15EBCE3C33A5}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -837,7 +842,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -847,7 +852,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -857,7 +862,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -867,17 +872,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
@@ -887,7 +892,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
@@ -897,12 +902,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
@@ -912,7 +917,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
@@ -923,5 +928,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60869019-F1D6-4FA9-8E8C-C2CE59BFEF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9B2CA-F4CF-4D38-82A0-A1CD8579C8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
@@ -279,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,11 +292,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -319,8 +334,8 @@
     <tableColumn id="2" xr3:uid="{0F29D255-3002-4AFE-BE3E-8B0636874509}" name="EntityID"/>
     <tableColumn id="6" xr3:uid="{96BA3B3E-8AA4-4B07-9E27-639398A6D3ED}" name="StateTime1"/>
     <tableColumn id="7" xr3:uid="{509F7D41-2B6E-4ABE-9507-0850686086C8}" name="StateTime2"/>
-    <tableColumn id="8" xr3:uid="{8E6A8181-3BF5-4A44-A555-484DFAA065DB}" name="DestroyAddItems"/>
-    <tableColumn id="9" xr3:uid="{09561902-D504-4E0A-98CD-F0E40C052EA2}" name="Counts"/>
+    <tableColumn id="8" xr3:uid="{8E6A8181-3BF5-4A44-A555-484DFAA065DB}" name="DestroyAddItems" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{09561902-D504-4E0A-98CD-F0E40C052EA2}" name="Counts" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,7 +640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758E790-4733-49C5-93EF-3AD14BB2D3E4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -633,8 +650,8 @@
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -656,10 +673,10 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -682,10 +699,10 @@
       <c r="F2">
         <v>1200</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>2500</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>5</v>
       </c>
     </row>
@@ -708,10 +725,10 @@
       <c r="F3">
         <v>1500</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>2501</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>5</v>
       </c>
     </row>
@@ -734,10 +751,10 @@
       <c r="F4">
         <v>2000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>2502</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>5</v>
       </c>
     </row>
@@ -760,10 +777,10 @@
       <c r="F5">
         <v>600</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>2503</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>8</v>
       </c>
     </row>
@@ -786,10 +803,10 @@
       <c r="F6">
         <v>1200</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>2504</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>3</v>
       </c>
     </row>
@@ -812,10 +829,10 @@
       <c r="F7">
         <v>60</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>1001</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>50</v>
       </c>
     </row>

--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9B2CA-F4CF-4D38-82A0-A1CD8579C8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B790288E-2738-46D8-A99C-8389896DE192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -181,6 +181,105 @@
     <rPh sb="4" eb="5">
       <t>カズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スギの木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑葉の木</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若緑の木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤葉の木</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジ葉の木</t>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色葉の木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪の積もった木</t>
+    <rPh sb="0" eb="1">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンク葉の木</t>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001,1002,2006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001,1002,2007</t>
+  </si>
+  <si>
+    <t>1001,1002,2008</t>
+  </si>
+  <si>
+    <t>15,15,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1038,1002,2009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1038,1002,2010</t>
+  </si>
+  <si>
+    <t>1038,1002,2011</t>
+  </si>
+  <si>
+    <t>1038,1002,2012</t>
+  </si>
+  <si>
+    <t>1038,1002,2013</t>
+  </si>
+  <si>
+    <t>10,15,1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H15" totalsRowShown="0">
+  <autoFilter ref="A1:H15" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7F037E00-A325-4710-9195-2BD2F5AE533B}" name="ID"/>
     <tableColumn id="12" xr3:uid="{78C45AA1-4F88-47FC-B64D-63795C73F502}" name="Des"/>
@@ -638,15 +737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758E790-4733-49C5-93EF-3AD14BB2D3E4}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E9" sqref="E9:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
@@ -834,6 +933,214 @@
       </c>
       <c r="H7" s="4">
         <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>2006</v>
+      </c>
+      <c r="D8">
+        <v>1806</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>900</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>2007</v>
+      </c>
+      <c r="D9">
+        <v>1807</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>900</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>2008</v>
+      </c>
+      <c r="D10">
+        <v>1808</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>900</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>2009</v>
+      </c>
+      <c r="D11">
+        <v>1809</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>900</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>2010</v>
+      </c>
+      <c r="D12">
+        <v>1810</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>900</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>2011</v>
+      </c>
+      <c r="D13">
+        <v>1811</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>900</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>2012</v>
+      </c>
+      <c r="D14">
+        <v>1812</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>900</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2013</v>
+      </c>
+      <c r="D15">
+        <v>1813</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>900</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Crops.xlsx
+++ b/Config/Excel/Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B790288E-2738-46D8-A99C-8389896DE192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017AF539-853D-4CB5-834D-9C16578156B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50007F52-FE5C-42FD-A1F3-2D61CD5B2DDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -76,13 +76,6 @@
   </si>
   <si>
     <t>ほうれん草</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -424,8 +417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H15" totalsRowShown="0">
-  <autoFilter ref="A1:H15" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}" name="テーブル1" displayName="テーブル1" ref="A1:H14" totalsRowShown="0">
+  <autoFilter ref="A1:H14" xr:uid="{AC55E8C3-9B11-410F-B49A-69F247C46A72}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7F037E00-A325-4710-9195-2BD2F5AE533B}" name="ID"/>
     <tableColumn id="12" xr3:uid="{78C45AA1-4F88-47FC-B64D-63795C73F502}" name="Des"/>
@@ -737,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758E790-4733-49C5-93EF-3AD14BB2D3E4}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -773,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -911,42 +904,42 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D7">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="H7" s="4">
-        <v>50</v>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D8">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E8">
         <v>300</v>
@@ -958,21 +951,21 @@
         <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D9">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="E9">
         <v>300</v>
@@ -984,21 +977,21 @@
         <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D10">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E10">
         <v>300</v>
@@ -1007,24 +1000,24 @@
         <v>900</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D11">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E11">
         <v>300</v>
@@ -1036,21 +1029,21 @@
         <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D12">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="E12">
         <v>300</v>
@@ -1062,21 +1055,21 @@
         <v>36</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D13">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="E13">
         <v>300</v>
@@ -1088,21 +1081,21 @@
         <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D14">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -1114,33 +1107,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>2013</v>
-      </c>
-      <c r="D15">
-        <v>1813</v>
-      </c>
-      <c r="E15">
-        <v>300</v>
-      </c>
-      <c r="F15">
-        <v>900</v>
-      </c>
-      <c r="G15" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -1176,7 +1143,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -1186,7 +1153,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -1196,7 +1163,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -1206,7 +1173,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
@@ -1216,7 +1183,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
@@ -1226,27 +1193,27 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
